--- a/data/trans_dic/P54_A_5_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P54_A_5_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -531,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se encuentra preocupada por sufrir problemas con los estudios o ya le ha ocurrido</t>
+          <t>Población que se encuentra preocupada por sufrir problemas con los estudios o ya le ha ocurrido (tasa de respuesta: 93,98%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -632,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>12,16%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>8,57%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1,83%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>10,12%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,95%</t>
         </is>
       </c>
     </row>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,36</t>
+          <t>3,75; 31,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,04</t>
+          <t>2,47; 22,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,34</t>
+          <t>0,0; 9,63</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,61</t>
+          <t>3,75; 20,18</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,29</t>
+          <t>0,0; 4,9</t>
         </is>
       </c>
     </row>
@@ -742,42 +743,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>11,3%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="E6" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>12,43%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1,12%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,88%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,96</t>
+          <t>3,62; 32,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>7,67; 19,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>0,0; 3,8</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>7,29; 22,93</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>0,0; 1,9</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -852,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>13,08%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0,84%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>14,8%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,07%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,27%</t>
         </is>
       </c>
     </row>
@@ -905,54 +906,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,29</t>
+          <t>6,89; 21,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,34</t>
+          <t>0,0; 4,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,95</t>
+          <t>9,48; 21,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,94</t>
+          <t>0,0; 2,44</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,55</t>
+          <t>9,79; 18,99</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>0,0; 1,86</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>0,0; 1,52</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,54 +1016,172 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>12,09%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,31%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>13,07%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0,5%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0,45%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>12,62%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,41%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0,24%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>7,21; 21,66</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,68</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>10,02; 17,73</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,64</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,71</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>9,45; 17,3</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0,11; 1,22</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 0,96</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
@@ -1072,4 +1191,963 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se encuentra preocupada por sufrir problemas con los estudios o ya le ha ocurrido (tasa de respuesta: 93,98%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>6698</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>6220</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>2045</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>12918</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>2045</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2067; 17610</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1793; 16456</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 10761</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>4790; 25773</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 10543</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>31388</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>36152</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>5074</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>67539</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>5074</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>10051; 90870</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>22311; 55693</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 17199</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>41452; 130391</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0; 16696</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>28670</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>2769</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>43692</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>1696</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>72362</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>2769</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>1696</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>15087; 46109</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 14232</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>27968; 62450</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 8423</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>50364; 97662</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 14058</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 9469</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>66755</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2769</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>86064</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>5074</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>3741</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>152819</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>7843</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>3741</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>39814; 119586</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 14768</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>65948; 116729</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 16669</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 14188</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>114379; 209447</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>2140; 23079</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0; 15141</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>